--- a/Attendance_BE/upload/excel/thongke.xlsx
+++ b/Attendance_BE/upload/excel/thongke.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>MSSV</t>
   </si>
@@ -21,6 +21,33 @@
   </si>
   <si>
     <t>(%)</t>
+  </si>
+  <si>
+    <t>DH633320240401013942</t>
+  </si>
+  <si>
+    <t>Tấn</t>
+  </si>
+  <si>
+    <t>DH115520240401013642</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>DH195920240401013704</t>
+  </si>
+  <si>
+    <t>DH357520240403030104</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>DH469420240403030125</t>
+  </si>
+  <si>
+    <t>Dung</t>
   </si>
 </sst>
 </file>
@@ -65,13 +92,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.28515625" customWidth="true" bestFit="true"/>
   </cols>
@@ -87,6 +114,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Attendance_BE/upload/excel/thongke.xlsx
+++ b/Attendance_BE/upload/excel/thongke.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MSSV</t>
   </si>
@@ -21,33 +21,6 @@
   </si>
   <si>
     <t>(%)</t>
-  </si>
-  <si>
-    <t>DH633320240401013942</t>
-  </si>
-  <si>
-    <t>Tấn</t>
-  </si>
-  <si>
-    <t>DH115520240401013642</t>
-  </si>
-  <si>
-    <t>Hòa</t>
-  </si>
-  <si>
-    <t>DH195920240401013704</t>
-  </si>
-  <si>
-    <t>DH357520240403030104</t>
-  </si>
-  <si>
-    <t>Duy</t>
-  </si>
-  <si>
-    <t>DH469420240403030125</t>
-  </si>
-  <si>
-    <t>Dung</t>
   </si>
 </sst>
 </file>
@@ -92,13 +65,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.15625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.28515625" customWidth="true" bestFit="true"/>
   </cols>
@@ -114,61 +87,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
